--- a/data/trans_dic/P44A$endoscopia-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P44A$endoscopia-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>40,36; 92,15</t>
+          <t>38,82; 90,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>36,78; 76,29</t>
+          <t>36,2; 75,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,03; 95,54</t>
+          <t>21,27; 95,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>40,56; 83,38</t>
+          <t>39,88; 79,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,97; 81,87</t>
+          <t>11,12; 75,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,22; 33,69</t>
+          <t>17,07; 33,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>47,56; 80,93</t>
+          <t>45,84; 78,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,85; 67,77</t>
+          <t>35,66; 68,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,5; 92,31</t>
+          <t>23,1; 94,06</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>43,68; 77,39</t>
+          <t>42,98; 77,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>38,99; 66,04</t>
+          <t>38,6; 67,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>34,45; 48,2</t>
+          <t>34,59; 48,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>43,86; 79,67</t>
+          <t>44,82; 82,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>42,26; 75,58</t>
+          <t>41,28; 74,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,53; 35,26</t>
+          <t>23,96; 34,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>51,11; 75,73</t>
+          <t>50,58; 74,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>44,64; 66,12</t>
+          <t>45,33; 66,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>31,52; 40,38</t>
+          <t>31,08; 40,27</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>54,12; 88,61</t>
+          <t>55,16; 87,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>27,49; 59,23</t>
+          <t>26,79; 56,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>40,07; 52,53</t>
+          <t>39,97; 52,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>45,58; 80,42</t>
+          <t>44,23; 79,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>40,95; 76,39</t>
+          <t>39,75; 76,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>30,57; 41,9</t>
+          <t>30,5; 41,71</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>54,56; 79,38</t>
+          <t>55,35; 80,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>36,85; 60,32</t>
+          <t>36,48; 60,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>37,04; 45,72</t>
+          <t>37,08; 45,58</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>24,02; 62,23</t>
+          <t>24,33; 62,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>44,04; 74,96</t>
+          <t>42,67; 74,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>46,8; 61,89</t>
+          <t>46,2; 62,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>33,33; 78,12</t>
+          <t>30,91; 78,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>33,23; 72,62</t>
+          <t>36,06; 73,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>48,62; 62,01</t>
+          <t>48,45; 62,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>32,4; 62,31</t>
+          <t>32,05; 62,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>44,42; 69,39</t>
+          <t>45,67; 70,34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>49,95; 60,45</t>
+          <t>49,79; 60,47</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>50,73; 71,59</t>
+          <t>51,6; 71,36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>43,78; 59,33</t>
+          <t>44,01; 59,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>41,36; 83,49</t>
+          <t>41,3; 83,32</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>51,54; 71,3</t>
+          <t>51,77; 71,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>45,67; 65,08</t>
+          <t>45,85; 65,62</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>33,43; 39,8</t>
+          <t>33,06; 39,47</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>54,16; 68,36</t>
+          <t>54,6; 69,23</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>47,5; 60,22</t>
+          <t>47,22; 59,71</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>38,75; 74,49</t>
+          <t>38,95; 72,6</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población al que le han realizado al menor una endoscopia para detectar cáncer de colon</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>9738</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>14918</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>265903</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>12764</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4879</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>17848</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>22502</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>19797</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>283751</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>5502; 12814</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>9695; 20169</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>70873; 319346</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>8180; 16228</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1227; 8283</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>12203; 24106</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>15899; 27386</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>13487; 25849</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>93463; 380599</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>24494</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>27843</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>76236</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>21590</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>22080</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>45366</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>46084</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>49923</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>121602</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>16910; 30611</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>20226; 35352</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>63377; 88276</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>15133; 27844</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>15619; 28211</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>37333; 53653</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>36980; 54535</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>40907; 60281</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>105389; 136532</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>22507</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>17877</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>75311</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>19672</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>18301</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>51471</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>42179</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>36178</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>126782</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>16888; 26756</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>11763; 24932</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>65488; 85232</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>13880; 24868</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>12400; 23856</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>43627; 59671</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>34318; 49646</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>27397; 45277</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>113810; 139881</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>10352</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>22065</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>52979</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>12102</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>19880</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>59618</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>22454</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>41946</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>112598</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>6141; 15655</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>15616; 27216</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>44571; 60691</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>6583; 16659</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>13001; 26375</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>52222; 66986</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>14915; 29028</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>33184; 51107</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>101702; 123504</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>67090</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>82704</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>470429</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>66129</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>65140</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>174304</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>133220</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>147844</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>644732</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>56432; 78039</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>70282; 95764</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>320782; 647154</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>55368; 76114</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>53248; 76196</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>158068; 188697</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>118116; 149759</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>130232; 164680</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>488756; 910962</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P44A$endoscopia-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P44A$endoscopia-Edad-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población al que le han realizado al menor una endoscopia para detectar cáncer de colon</t>
+          <t>Población a la que le han realizado al menos una endoscopia para detectar cáncer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1559,7 +1559,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población al que le han realizado al menor una endoscopia para detectar cáncer de colon</t>
+          <t>Población a la que le han realizado al menos una endoscopia para detectar cáncer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
